--- a/date/RTK_Date.xlsx
+++ b/date/RTK_Date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dc_yang/Documents/MATLAB/Vincenty-solutions/date/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC01563-2ED8-844D-8080-8FC011E626EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F24FA16-9439-7140-9C47-160E02C85591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="960" windowWidth="27840" windowHeight="15820" xr2:uid="{D1C4DC45-D838-4E4E-9BD0-F418E1EC1FE9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>DJI_0168</t>
   </si>
@@ -93,6 +93,14 @@
   </si>
   <si>
     <t>误差百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算角度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>357° 55′ 54.30″</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -506,19 +514,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9991952-BE0C-0249-A4B0-83EA0136BEB8}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
@@ -540,8 +549,11 @@
       <c r="H1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1">
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -566,8 +578,11 @@
       <c r="H2" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -592,8 +607,11 @@
       <c r="H3">
         <v>2.28941768166227</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="7" customFormat="1">
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="7" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -619,7 +637,7 @@
         <v>1.0314206262333001</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -645,7 +663,7 @@
         <v>0.55364630489160704</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -671,7 +689,7 @@
         <v>0.24041783325445501</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="7" customFormat="1">
+    <row r="7" spans="1:9" s="7" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -697,7 +715,7 @@
         <v>9.3891134614522601E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -723,7 +741,7 @@
         <v>0.71487735174629496</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -749,7 +767,7 @@
         <v>0.91440271634053305</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -775,7 +793,7 @@
         <v>1.41847941570139</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,7 +819,7 @@
         <v>1.43222608838976</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
